--- a/Nervana_Test_Case.xlsx
+++ b/Nervana_Test_Case.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Harshit/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Harshit/Job_Search/cloud_code_challenge-master copy/Cloud-Coding-Challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -98,9 +98,6 @@
     <t>Database creation</t>
   </si>
   <si>
-    <t>Call the database API with request methon post</t>
-  </si>
-  <si>
     <t>Database created</t>
   </si>
   <si>
@@ -113,9 +110,6 @@
     <t>Call commands API with request method is POST and providing file name in filename input parameter</t>
   </si>
   <si>
-    <t>Call commands API with request method is POST and providing file data in request body</t>
-  </si>
-  <si>
     <t>Data in request body will be processed and output will be stored in Database</t>
   </si>
   <si>
@@ -131,16 +125,22 @@
     <t>Data in the Database will be returned in JSON format.</t>
   </si>
   <si>
-    <t xml:space="preserve">Provide file feed containing commands which takes long time to execute </t>
-  </si>
-  <si>
-    <t>Execute commands with commands not ending in given time</t>
-  </si>
-  <si>
-    <t>Process will be killed in 60 seconds(Timeout) and tome to execution will be stored as 0</t>
-  </si>
-  <si>
     <t>TC_005</t>
+  </si>
+  <si>
+    <t>Call the database API with POST request method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide file feed containing commands taking long time to execute </t>
+  </si>
+  <si>
+    <t>Process will be killed in 60 seconds(Timeout) and execution time will be stored as 0 in database</t>
+  </si>
+  <si>
+    <t>Execute commands taking long time to execute.</t>
+  </si>
+  <si>
+    <t>Call commands API with POST request method  and providing file data in request body</t>
   </si>
 </sst>
 </file>
@@ -274,8 +274,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -283,11 +286,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -569,7 +569,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -581,14 +581,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -599,90 +599,90 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="8"/>
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="4"/>
+      <c r="A6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="8"/>
       <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>0</v>
@@ -690,12 +690,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
